--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UPGRADE-EXAM\upgradex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1532998B-DA1C-4B98-B01D-14407047EED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC245C-D5CF-4DE4-AC76-C4DC55B0AA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9700,15 +9700,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>532</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>1865.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -9787,8 +9787,14 @@
       <c r="F4">
         <v>8556.1200000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>178784</v>
+      </c>
+      <c r="J4">
+        <v>17864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -9808,7 +9814,7 @@
         <v>743.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>530.54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -9848,7 +9854,7 @@
         <v>10085.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>1321.12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -9888,7 +9894,7 @@
         <v>16781.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>24504.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>2758.78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>5477.64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -9968,7 +9974,7 @@
         <v>5820.64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -9988,7 +9994,7 @@
         <v>1806.44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>7663.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>281</v>
       </c>

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC245C-D5CF-4DE4-AC76-C4DC55B0AA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C4A308-94C0-4CB4-8A21-7D4F18591003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9703,7 +9703,7 @@
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9873,6 +9873,9 @@
       <c r="F8">
         <v>1321.12</v>
       </c>
+      <c r="I8">
+        <v>173523</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -10012,6 +10015,9 @@
       </c>
       <c r="F15">
         <v>7663.7</v>
+      </c>
+      <c r="I15">
+        <v>131234</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C4A308-94C0-4CB4-8A21-7D4F18591003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDCEF9-38A5-4EDA-87C5-844640625DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="671">
   <si>
     <t>Date</t>
   </si>
@@ -2033,6 +2033,9 @@
   </si>
   <si>
     <t>P935</t>
+  </si>
+  <si>
+    <t>the final trial</t>
   </si>
 </sst>
 </file>
@@ -9700,15 +9703,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9728,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>532</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>1865.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>743.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>530.54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>10085.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>173523</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -9896,8 +9899,11 @@
       <c r="F9">
         <v>16781.28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>24504.06</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -9937,7 +9943,7 @@
         <v>2758.78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -9957,7 +9963,7 @@
         <v>5477.64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -9977,7 +9983,7 @@
         <v>5820.64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>1806.44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>131234</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>281</v>
       </c>

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDCEF9-38A5-4EDA-87C5-844640625DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E735903-014D-4691-ADE1-0EB34AE0E6AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="672">
   <si>
     <t>Date</t>
   </si>
@@ -2036,6 +2036,9 @@
   </si>
   <si>
     <t>the final trial</t>
+  </si>
+  <si>
+    <t>the second trial</t>
   </si>
 </sst>
 </file>
@@ -9706,7 +9709,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9982,6 +9985,9 @@
       <c r="F13">
         <v>5820.64</v>
       </c>
+      <c r="L13" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E735903-014D-4691-ADE1-0EB34AE0E6AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199F3A3-55BF-4CFB-8534-97B85A9E005A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="673">
   <si>
     <t>Date</t>
   </si>
@@ -2039,6 +2039,9 @@
   </si>
   <si>
     <t>the second trial</t>
+  </si>
+  <si>
+    <t>this is the third trial</t>
   </si>
 </sst>
 </file>
@@ -9709,7 +9712,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10051,6 +10054,9 @@
       <c r="F16">
         <v>16885.400000000001</v>
       </c>
+      <c r="L16" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199F3A3-55BF-4CFB-8534-97B85A9E005A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC783658-3BCF-4D68-835A-2C8E5F5EFB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="674">
   <si>
     <t>Date</t>
   </si>
@@ -2042,6 +2042,9 @@
   </si>
   <si>
     <t>this is the third trial</t>
+  </si>
+  <si>
+    <t>ghsdfh</t>
   </si>
 </sst>
 </file>
@@ -9712,7 +9715,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10058,7 +10061,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>297.45999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>546</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>19192.400000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>272</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>16791.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>548</v>
       </c>
@@ -10137,8 +10140,11 @@
       <c r="F20">
         <v>12238.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>13430.88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>1654.21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>515</v>
       </c>
@@ -10198,7 +10204,7 @@
         <v>2833.72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>9636.66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v>12921.6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>17141.04</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>557</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>694.11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>9309.84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -10318,7 +10324,7 @@
         <v>8207.68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>559</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>2130.2399999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>274</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>4078.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>341</v>
       </c>

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC783658-3BCF-4D68-835A-2C8E5F5EFB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F14C9-0459-4778-B9E9-F17FF945FEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="670">
   <si>
     <t>Date</t>
   </si>
@@ -2033,18 +2033,6 @@
   </si>
   <si>
     <t>P935</t>
-  </si>
-  <si>
-    <t>the final trial</t>
-  </si>
-  <si>
-    <t>the second trial</t>
-  </si>
-  <si>
-    <t>this is the third trial</t>
-  </si>
-  <si>
-    <t>ghsdfh</t>
   </si>
 </sst>
 </file>
@@ -9712,15 +9700,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9740,7 +9728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>532</v>
       </c>
@@ -9760,7 +9748,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -9780,7 +9768,7 @@
         <v>1865.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -9799,14 +9787,8 @@
       <c r="F4">
         <v>8556.1200000000008</v>
       </c>
-      <c r="G4">
-        <v>178784</v>
-      </c>
-      <c r="J4">
-        <v>17864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -9826,7 +9808,7 @@
         <v>743.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -9846,7 +9828,7 @@
         <v>530.54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -9866,7 +9848,7 @@
         <v>10085.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -9885,11 +9867,8 @@
       <c r="F8">
         <v>1321.12</v>
       </c>
-      <c r="I8">
-        <v>173523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -9908,11 +9887,8 @@
       <c r="F9">
         <v>16781.28</v>
       </c>
-      <c r="L9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -9932,7 +9908,7 @@
         <v>24504.06</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -9952,7 +9928,7 @@
         <v>2758.78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -9972,7 +9948,7 @@
         <v>5477.64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -9991,11 +9967,8 @@
       <c r="F13">
         <v>5820.64</v>
       </c>
-      <c r="L13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -10015,7 +9988,7 @@
         <v>1806.44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -10034,11 +10007,8 @@
       <c r="F15">
         <v>7663.7</v>
       </c>
-      <c r="I15">
-        <v>131234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -10057,11 +10027,8 @@
       <c r="F16">
         <v>16885.400000000001</v>
       </c>
-      <c r="L16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -10081,7 +10048,7 @@
         <v>297.45999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>546</v>
       </c>
@@ -10101,7 +10068,7 @@
         <v>19192.400000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>272</v>
       </c>
@@ -10121,7 +10088,7 @@
         <v>16791.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>548</v>
       </c>
@@ -10140,11 +10107,8 @@
       <c r="F20">
         <v>12238.11</v>
       </c>
-      <c r="K20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -10164,7 +10128,7 @@
         <v>13430.88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -10184,7 +10148,7 @@
         <v>1654.21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>515</v>
       </c>
@@ -10204,7 +10168,7 @@
         <v>2833.72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -10224,7 +10188,7 @@
         <v>9636.66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -10244,7 +10208,7 @@
         <v>12921.6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>556</v>
       </c>
@@ -10264,7 +10228,7 @@
         <v>17141.04</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>557</v>
       </c>
@@ -10284,7 +10248,7 @@
         <v>694.11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -10304,7 +10268,7 @@
         <v>9309.84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -10324,7 +10288,7 @@
         <v>8207.68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>559</v>
       </c>
@@ -10344,7 +10308,7 @@
         <v>2130.2399999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>274</v>
       </c>
@@ -10364,7 +10328,7 @@
         <v>4078.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>341</v>
       </c>

--- a/sales_data_regions.xlsx
+++ b/sales_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RahemaniNaeem\First-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F14C9-0459-4778-B9E9-F17FF945FEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074A094B-DED1-4284-92EF-BFF286D2B9E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9700,15 +9700,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>532</v>
       </c>
@@ -9747,8 +9747,11 @@
       <c r="F2">
         <v>2271</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>1865.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>8556.1200000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>743.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>530.54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -9848,7 +9851,7 @@
         <v>10085.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>1321.12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>16781.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>398</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>24504.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>2758.78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>5477.64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>5820.64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>1806.44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>7663.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>281</v>
       </c>
